--- a/excel/trick_202309.xlsx
+++ b/excel/trick_202309.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AI64"/>
+  <dimension ref="A1:AI49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -670,7 +670,7 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1400</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
@@ -785,7 +785,7 @@
       </c>
       <c r="AI2" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>1980</t>
         </is>
       </c>
     </row>
@@ -847,7 +847,7 @@
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1370</t>
         </is>
       </c>
       <c r="M3" t="inlineStr">
@@ -907,7 +907,7 @@
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1340</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
@@ -962,24 +962,24 @@
       </c>
       <c r="AI3" t="inlineStr">
         <is>
-          <t>2640</t>
+          <t>5350</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>陳智倫</t>
+          <t>黃冠叡</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Frank Chen</t>
+          <t>Ray Huang</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0AA3</t>
+          <t>0AA35C</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -1044,7 +1044,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>570</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
@@ -1139,24 +1139,24 @@
       </c>
       <c r="AI4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>570</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>黃冠叡</t>
+          <t>劉家瑜</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Ray Huang</t>
+          <t>Scott Liu</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0AA35C</t>
+          <t>0AA371</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -1181,7 +1181,7 @@
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2700</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -1211,12 +1211,12 @@
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2700</t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2980</t>
         </is>
       </c>
       <c r="P5" t="inlineStr">
@@ -1226,7 +1226,7 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2980</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
@@ -1256,7 +1256,7 @@
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2160</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
@@ -1316,19 +1316,19 @@
       </c>
       <c r="AI5" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>13520</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>劉家瑜</t>
+          <t>林育田</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Scott Liu</t>
+          <t>Kevin Lin</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -1373,12 +1373,12 @@
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1400</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1375</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
@@ -1388,12 +1388,12 @@
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>2700</t>
+          <t>2655</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
-          <t>2980</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P6" t="inlineStr">
@@ -1403,7 +1403,7 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>2980</t>
+          <t>1400</t>
         </is>
       </c>
       <c r="R6" t="inlineStr">
@@ -1433,7 +1433,7 @@
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>2160</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
@@ -1493,19 +1493,19 @@
       </c>
       <c r="AI6" t="inlineStr">
         <is>
-          <t>10820</t>
+          <t>6830</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>林育田</t>
+          <t>陳緯綺</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Kevin Lin</t>
+          <t>Vicky Chen</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -1555,7 +1555,7 @@
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>1375</t>
+          <t>1400</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
@@ -1565,7 +1565,7 @@
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>2655</t>
+          <t>2700</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -1580,7 +1580,7 @@
       </c>
       <c r="Q7" t="inlineStr">
         <is>
-          <t>1400</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R7" t="inlineStr">
@@ -1650,7 +1650,7 @@
       </c>
       <c r="AE7" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>469</t>
         </is>
       </c>
       <c r="AF7" t="inlineStr">
@@ -1670,24 +1670,24 @@
       </c>
       <c r="AI7" t="inlineStr">
         <is>
-          <t>5430</t>
+          <t>4569</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>陳緯綺</t>
+          <t>李子豪</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Vicky Chen</t>
+          <t>Howard Lee</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0AA371</t>
+          <t>0AA374</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1777,7 +1777,7 @@
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>35</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
@@ -1817,7 +1817,7 @@
       </c>
       <c r="AC8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>880</t>
         </is>
       </c>
       <c r="AD8" t="inlineStr">
@@ -1847,24 +1847,24 @@
       </c>
       <c r="AI8" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>915</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>陳緯綺</t>
+          <t>張潔宜</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Vicky Chen</t>
+          <t>Vivi Chang</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0AA371</t>
+          <t>0AA374</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1924,17 +1924,17 @@
       </c>
       <c r="O9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>406</t>
         </is>
       </c>
       <c r="P9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>131</t>
         </is>
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>406</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -1954,12 +1954,12 @@
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>262</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>406</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
@@ -1969,7 +1969,7 @@
       </c>
       <c r="X9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>406</t>
         </is>
       </c>
       <c r="Y9" t="inlineStr">
@@ -1989,12 +1989,12 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>406</t>
         </is>
       </c>
       <c r="AC9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>406</t>
         </is>
       </c>
       <c r="AD9" t="inlineStr">
@@ -2024,24 +2024,24 @@
       </c>
       <c r="AI9" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2829</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>李子豪</t>
+          <t>徐茂家</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Howard Lee</t>
+          <t>Mark Hsu</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0AA374</t>
+          <t>0AA375</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -2071,7 +2071,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1400</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -2201,24 +2201,24 @@
       </c>
       <c r="AI10" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1400</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>張潔宜</t>
+          <t>吳燕華</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Vivi Chang</t>
+          <t>Isabel Wu</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0AA374</t>
+          <t>0AA376</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -2248,7 +2248,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4050</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -2283,12 +2283,12 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>131</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>406</t>
+          <t>0</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
@@ -2313,7 +2313,7 @@
       </c>
       <c r="V11" t="inlineStr">
         <is>
-          <t>406</t>
+          <t>0</t>
         </is>
       </c>
       <c r="W11" t="inlineStr">
@@ -2378,24 +2378,24 @@
       </c>
       <c r="AI11" t="inlineStr">
         <is>
-          <t>943</t>
+          <t>4050</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>張潔宜</t>
+          <t>沈麗玉</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Vivi Chang</t>
+          <t>Lillian Shan</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0AA374</t>
+          <t>0AA376</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -2465,7 +2465,7 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>850</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
@@ -2555,24 +2555,24 @@
       </c>
       <c r="AI12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>850</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>李子豪</t>
+          <t>李羚榕</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Howard Lee</t>
+          <t>Alison Lee</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0AA374</t>
+          <t>0AA379</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -2612,7 +2612,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>580</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -2702,7 +2702,7 @@
       </c>
       <c r="AC13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>285</t>
         </is>
       </c>
       <c r="AD13" t="inlineStr">
@@ -2732,24 +2732,24 @@
       </c>
       <c r="AI13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>865</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>徐茂家</t>
+          <t>張榕珊</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Mark Hsu</t>
+          <t>Sandy Chang</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0AA375</t>
+          <t>0AA379</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -2814,7 +2814,7 @@
       </c>
       <c r="P14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>60</t>
         </is>
       </c>
       <c r="Q14" t="inlineStr">
@@ -2844,7 +2844,7 @@
       </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>60</t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
@@ -2909,24 +2909,24 @@
       </c>
       <c r="AI14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>120</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>吳燕華</t>
+          <t>陳楨紘</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Isabel Wu</t>
+          <t>Jane Chen</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0AA376</t>
+          <t>0AA379</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -2991,7 +2991,7 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>320</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
@@ -3021,7 +3021,7 @@
       </c>
       <c r="V15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>160</t>
         </is>
       </c>
       <c r="W15" t="inlineStr">
@@ -3086,24 +3086,24 @@
       </c>
       <c r="AI15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>480</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>沈麗玉</t>
+          <t>吳東穎</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Lillian Shan</t>
+          <t>Richie Wu</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>0AA376</t>
+          <t>0AA380</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -3133,17 +3133,17 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1350</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1350</t>
         </is>
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1350</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
@@ -3163,12 +3163,12 @@
       </c>
       <c r="O16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2380</t>
         </is>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2700</t>
         </is>
       </c>
       <c r="Q16" t="inlineStr">
@@ -3193,17 +3193,17 @@
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1350</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1350</t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1300</t>
         </is>
       </c>
       <c r="X16" t="inlineStr">
@@ -3213,7 +3213,7 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>560</t>
         </is>
       </c>
       <c r="Z16" t="inlineStr">
@@ -3238,7 +3238,7 @@
       </c>
       <c r="AD16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1300</t>
         </is>
       </c>
       <c r="AE16" t="inlineStr">
@@ -3263,24 +3263,24 @@
       </c>
       <c r="AI16" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>14990</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>李羚榕</t>
+          <t>徐世峰</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Alison Lee</t>
+          <t>Sam Hsu</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>0AA379</t>
+          <t>0AA381</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -3345,7 +3345,7 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>440</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
@@ -3355,7 +3355,7 @@
       </c>
       <c r="R17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2370</t>
         </is>
       </c>
       <c r="S17" t="inlineStr">
@@ -3440,24 +3440,24 @@
       </c>
       <c r="AI17" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2810</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>張榕珊</t>
+          <t>王素珍</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Sandy Chang</t>
+          <t>Carol Wang</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0AA379</t>
+          <t>0AA381</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -3492,7 +3492,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3060</t>
         </is>
       </c>
       <c r="K18" t="inlineStr">
@@ -3552,7 +3552,7 @@
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>0</t>
         </is>
       </c>
       <c r="W18" t="inlineStr">
@@ -3617,24 +3617,24 @@
       </c>
       <c r="AI18" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>3060</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>陳楨紘</t>
+          <t>陳寶慧</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Jane Chen</t>
+          <t>Bao Chen</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0AA379</t>
+          <t>0AA39</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -3729,12 +3729,12 @@
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>0</t>
         </is>
       </c>
       <c r="W19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1640</t>
         </is>
       </c>
       <c r="X19" t="inlineStr">
@@ -3759,7 +3759,7 @@
       </c>
       <c r="AB19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2905</t>
         </is>
       </c>
       <c r="AC19" t="inlineStr">
@@ -3769,7 +3769,7 @@
       </c>
       <c r="AD19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1340</t>
         </is>
       </c>
       <c r="AE19" t="inlineStr">
@@ -3794,24 +3794,24 @@
       </c>
       <c r="AI19" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>5885</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>李羚榕</t>
+          <t>林雅雪</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Alison Lee</t>
+          <t>Cher Lin</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>0AA379</t>
+          <t>0AA41</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -3846,7 +3846,7 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2980</t>
         </is>
       </c>
       <c r="K20" t="inlineStr">
@@ -3856,7 +3856,7 @@
       </c>
       <c r="L20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1400</t>
         </is>
       </c>
       <c r="M20" t="inlineStr">
@@ -3906,12 +3906,12 @@
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>570</t>
         </is>
       </c>
       <c r="W20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>580</t>
         </is>
       </c>
       <c r="X20" t="inlineStr">
@@ -3936,7 +3936,7 @@
       </c>
       <c r="AB20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2980</t>
         </is>
       </c>
       <c r="AC20" t="inlineStr">
@@ -3971,29 +3971,29 @@
       </c>
       <c r="AI20" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8510</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>吳東穎</t>
+          <t>孫偉恭</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Richie Wu</t>
+          <t>Peter Sun</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>0AA380</t>
+          <t>0AA4B</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>580</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
@@ -4023,12 +4023,12 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>1350</t>
+          <t>0</t>
         </is>
       </c>
       <c r="K21" t="inlineStr">
         <is>
-          <t>1350</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L21" t="inlineStr">
@@ -4048,12 +4048,12 @@
       </c>
       <c r="O21" t="inlineStr">
         <is>
-          <t>2380</t>
+          <t>0</t>
         </is>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>2700</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q21" t="inlineStr">
@@ -4078,17 +4078,17 @@
       </c>
       <c r="U21" t="inlineStr">
         <is>
-          <t>1350</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>1350</t>
+          <t>0</t>
         </is>
       </c>
       <c r="W21" t="inlineStr">
         <is>
-          <t>1300</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X21" t="inlineStr">
@@ -4113,7 +4113,7 @@
       </c>
       <c r="AB21" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>580</t>
         </is>
       </c>
       <c r="AC21" t="inlineStr">
@@ -4148,24 +4148,24 @@
       </c>
       <c r="AI21" t="inlineStr">
         <is>
-          <t>11780</t>
+          <t>1160</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>吳東穎</t>
+          <t>王貞文</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Richie Wu</t>
+          <t>Jane Wang</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>0AA380</t>
+          <t>0AA4B</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -4225,7 +4225,7 @@
       </c>
       <c r="O22" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2980</t>
         </is>
       </c>
       <c r="P22" t="inlineStr">
@@ -4300,7 +4300,7 @@
       </c>
       <c r="AD22" t="inlineStr">
         <is>
-          <t>1300</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE22" t="inlineStr">
@@ -4325,24 +4325,24 @@
       </c>
       <c r="AI22" t="inlineStr">
         <is>
-          <t>1300</t>
+          <t>2980</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>徐世峰</t>
+          <t>余承翰</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Sam Hsu</t>
+          <t>Jenson Yu</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>0AA381</t>
+          <t>0AA4B</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -4437,12 +4437,12 @@
       </c>
       <c r="V23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>440</t>
         </is>
       </c>
       <c r="W23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>440</t>
         </is>
       </c>
       <c r="X23" t="inlineStr">
@@ -4502,24 +4502,24 @@
       </c>
       <c r="AI23" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>880</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>王素珍</t>
+          <t>江晏如</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Carol Wang</t>
+          <t>Jessika Jiang</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>0AA381</t>
+          <t>0AA4CA</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -4529,7 +4529,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1500</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -4544,7 +4544,7 @@
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1400</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -4559,7 +4559,7 @@
       </c>
       <c r="K24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>410</t>
         </is>
       </c>
       <c r="L24" t="inlineStr">
@@ -4584,7 +4584,7 @@
       </c>
       <c r="P24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1400</t>
         </is>
       </c>
       <c r="Q24" t="inlineStr">
@@ -4609,7 +4609,7 @@
       </c>
       <c r="U24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1165</t>
         </is>
       </c>
       <c r="V24" t="inlineStr">
@@ -4619,12 +4619,12 @@
       </c>
       <c r="W24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1400</t>
         </is>
       </c>
       <c r="X24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1165</t>
         </is>
       </c>
       <c r="Y24" t="inlineStr">
@@ -4654,7 +4654,7 @@
       </c>
       <c r="AD24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1425</t>
         </is>
       </c>
       <c r="AE24" t="inlineStr">
@@ -4679,24 +4679,24 @@
       </c>
       <c r="AI24" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9865</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>陳寶慧</t>
+          <t>張軒瑜</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Bao Chen</t>
+          <t>Mark Chang</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>0AA39</t>
+          <t>0AA4CA</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -4721,7 +4721,7 @@
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1400</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -4856,24 +4856,24 @@
       </c>
       <c r="AI25" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1400</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>陳寶慧</t>
+          <t>黃秀菁</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Bao Chen</t>
+          <t>EVA Huang</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>0AA39</t>
+          <t>0AA4CA</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -4898,7 +4898,7 @@
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1400</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -4978,7 +4978,7 @@
       </c>
       <c r="X26" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1400</t>
         </is>
       </c>
       <c r="Y26" t="inlineStr">
@@ -5008,7 +5008,7 @@
       </c>
       <c r="AD26" t="inlineStr">
         <is>
-          <t>1340</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE26" t="inlineStr">
@@ -5033,24 +5033,24 @@
       </c>
       <c r="AI26" t="inlineStr">
         <is>
-          <t>1340</t>
+          <t>2800</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>林雅雪</t>
+          <t>王縈嫻</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Cher Lin</t>
+          <t>Ariel Wang</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>0AA41</t>
+          <t>0AA4CA</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -5075,7 +5075,7 @@
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1400</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -5085,7 +5085,7 @@
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1400</t>
         </is>
       </c>
       <c r="K27" t="inlineStr">
@@ -5095,7 +5095,7 @@
       </c>
       <c r="L27" t="inlineStr">
         <is>
-          <t>1400</t>
+          <t>0</t>
         </is>
       </c>
       <c r="M27" t="inlineStr">
@@ -5145,12 +5145,12 @@
       </c>
       <c r="V27" t="inlineStr">
         <is>
-          <t>570</t>
+          <t>0</t>
         </is>
       </c>
       <c r="W27" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X27" t="inlineStr">
@@ -5210,24 +5210,24 @@
       </c>
       <c r="AI27" t="inlineStr">
         <is>
-          <t>2550</t>
+          <t>2800</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>林雅雪</t>
+          <t>陳麗芳</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Cher Lin</t>
+          <t>Aretha Chen</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>0AA41</t>
+          <t>0AA4CA</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -5252,7 +5252,7 @@
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>570</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -5292,7 +5292,7 @@
       </c>
       <c r="P28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>580</t>
         </is>
       </c>
       <c r="Q28" t="inlineStr">
@@ -5337,7 +5337,7 @@
       </c>
       <c r="Y28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>550</t>
         </is>
       </c>
       <c r="Z28" t="inlineStr">
@@ -5362,7 +5362,7 @@
       </c>
       <c r="AD28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>560</t>
         </is>
       </c>
       <c r="AE28" t="inlineStr">
@@ -5387,24 +5387,24 @@
       </c>
       <c r="AI28" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2260</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>孫偉恭</t>
+          <t>曾珮郁</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Peter Sun</t>
+          <t>Eunice Tseng</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>0AA4B</t>
+          <t>0AA4S2</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -5429,7 +5429,7 @@
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1575</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -5564,24 +5564,24 @@
       </c>
       <c r="AI29" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1575</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>王貞文</t>
+          <t>黃榮昌</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Jane Wang</t>
+          <t>Hothwang Huang</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>0AA4B</t>
+          <t>0AA4S2</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -5621,7 +5621,7 @@
       </c>
       <c r="K30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3370</t>
         </is>
       </c>
       <c r="L30" t="inlineStr">
@@ -5741,24 +5741,24 @@
       </c>
       <c r="AI30" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3370</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>余承翰</t>
+          <t>吳建霖</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Jenson Yu</t>
+          <t>ChienLin Wu</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>0AA4B</t>
+          <t>0AA4S2</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -5783,7 +5783,7 @@
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2160</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -5798,7 +5798,7 @@
       </c>
       <c r="K31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2195</t>
         </is>
       </c>
       <c r="L31" t="inlineStr">
@@ -5813,7 +5813,7 @@
       </c>
       <c r="N31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>560</t>
         </is>
       </c>
       <c r="O31" t="inlineStr">
@@ -5848,7 +5848,7 @@
       </c>
       <c r="U31" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>830</t>
         </is>
       </c>
       <c r="V31" t="inlineStr">
@@ -5858,7 +5858,7 @@
       </c>
       <c r="W31" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>0</t>
         </is>
       </c>
       <c r="X31" t="inlineStr">
@@ -5918,24 +5918,24 @@
       </c>
       <c r="AI31" t="inlineStr">
         <is>
-          <t>440</t>
+          <t>5745</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>孫偉恭</t>
+          <t>劉勝雄</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Peter Sun</t>
+          <t>Vincent Liu</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>0AA4B</t>
+          <t>0AA6</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -5980,7 +5980,7 @@
       </c>
       <c r="L32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1475</t>
         </is>
       </c>
       <c r="M32" t="inlineStr">
@@ -6095,24 +6095,24 @@
       </c>
       <c r="AI32" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1475</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>江晏如</t>
+          <t>戴新華</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Jessika Jiang</t>
+          <t>Dixie Tai</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>0AA4CA</t>
+          <t>0AA6</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -6137,7 +6137,7 @@
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>1400</t>
+          <t>0</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -6152,7 +6152,7 @@
       </c>
       <c r="K33" t="inlineStr">
         <is>
-          <t>410</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L33" t="inlineStr">
@@ -6177,7 +6177,7 @@
       </c>
       <c r="P33" t="inlineStr">
         <is>
-          <t>1400</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q33" t="inlineStr">
@@ -6202,7 +6202,7 @@
       </c>
       <c r="U33" t="inlineStr">
         <is>
-          <t>1165</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V33" t="inlineStr">
@@ -6212,7 +6212,7 @@
       </c>
       <c r="W33" t="inlineStr">
         <is>
-          <t>1400</t>
+          <t>700</t>
         </is>
       </c>
       <c r="X33" t="inlineStr">
@@ -6272,24 +6272,24 @@
       </c>
       <c r="AI33" t="inlineStr">
         <is>
-          <t>5775</t>
+          <t>700</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>張軒瑜</t>
+          <t>徐國財</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Mark Chang</t>
+          <t>Richard Hsu</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>0AA4CA</t>
+          <t>0AA80</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -6314,7 +6314,7 @@
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>320</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -6384,7 +6384,7 @@
       </c>
       <c r="V34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>320</t>
         </is>
       </c>
       <c r="W34" t="inlineStr">
@@ -6429,7 +6429,7 @@
       </c>
       <c r="AE34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1400</t>
         </is>
       </c>
       <c r="AF34" t="inlineStr">
@@ -6449,24 +6449,24 @@
       </c>
       <c r="AI34" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2040</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>黃秀菁</t>
+          <t>李泰儀</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>EVA Huang</t>
+          <t>Tyron Lee</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>0AA4CA</t>
+          <t>0AA9</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -6496,7 +6496,7 @@
       </c>
       <c r="I35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1500</t>
         </is>
       </c>
       <c r="J35" t="inlineStr">
@@ -6626,24 +6626,24 @@
       </c>
       <c r="AI35" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1500</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>王縈嫻</t>
+          <t>徐儷珊</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Ariel Wang</t>
+          <t>Lisan Hsu</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>0AA4CA</t>
+          <t>0AA940</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -6678,19 +6678,19 @@
       </c>
       <c r="J36" t="inlineStr">
         <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
           <t>1400</t>
         </is>
       </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="M36" t="inlineStr">
         <is>
           <t>0</t>
@@ -6698,7 +6698,7 @@
       </c>
       <c r="N36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2700</t>
         </is>
       </c>
       <c r="O36" t="inlineStr">
@@ -6783,7 +6783,7 @@
       </c>
       <c r="AE36" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>476</t>
         </is>
       </c>
       <c r="AF36" t="inlineStr">
@@ -6803,29 +6803,29 @@
       </c>
       <c r="AI36" t="inlineStr">
         <is>
-          <t>1400</t>
+          <t>4576</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>陳麗芳</t>
+          <t>李俊賢</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Aretha Chen</t>
+          <t>Kiven Lee</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>0AA4CA</t>
+          <t>0AA95</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>745</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
@@ -6885,7 +6885,7 @@
       </c>
       <c r="P37" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>0</t>
         </is>
       </c>
       <c r="Q37" t="inlineStr">
@@ -6980,24 +6980,24 @@
       </c>
       <c r="AI37" t="inlineStr">
         <is>
-          <t>580</t>
+          <t>745</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>陳麗芳</t>
+          <t>蔡俊輝</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Aretha Chen</t>
+          <t>Alex Tsai</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>0AA4CA</t>
+          <t>0B</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -7037,12 +7037,12 @@
       </c>
       <c r="K38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>700</t>
         </is>
       </c>
       <c r="L38" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>670</t>
         </is>
       </c>
       <c r="M38" t="inlineStr">
@@ -7132,7 +7132,7 @@
       </c>
       <c r="AD38" t="inlineStr">
         <is>
-          <t>560</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE38" t="inlineStr">
@@ -7157,24 +7157,24 @@
       </c>
       <c r="AI38" t="inlineStr">
         <is>
-          <t>560</t>
+          <t>1370</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>江晏如</t>
+          <t>川中郁果</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Jessika Jiang</t>
+          <t>Kawanaka Ikuka</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>0AA4CA</t>
+          <t>0B</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -7284,7 +7284,7 @@
       </c>
       <c r="Y39" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3580</t>
         </is>
       </c>
       <c r="Z39" t="inlineStr">
@@ -7309,7 +7309,7 @@
       </c>
       <c r="AD39" t="inlineStr">
         <is>
-          <t>1425</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AE39" t="inlineStr">
@@ -7334,24 +7334,24 @@
       </c>
       <c r="AI39" t="inlineStr">
         <is>
-          <t>1425</t>
+          <t>3580</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>黃秀菁</t>
+          <t>楊筑珺</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>EVA Huang</t>
+          <t>Chynee Yang</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>0AA4CA</t>
+          <t>0B</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -7491,7 +7491,7 @@
       </c>
       <c r="AE40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>130</t>
         </is>
       </c>
       <c r="AF40" t="inlineStr">
@@ -7511,24 +7511,24 @@
       </c>
       <c r="AI40" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>130</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>曾珮郁</t>
+          <t>徐沛</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Eunice Tseng</t>
+          <t>Fanny Hsu</t>
         </is>
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>0AA4S2</t>
+          <t>0B</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -7668,7 +7668,7 @@
       </c>
       <c r="AE41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
       <c r="AF41" t="inlineStr">
@@ -7688,29 +7688,29 @@
       </c>
       <c r="AI41" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>200</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>黃榮昌</t>
+          <t>郭家渝</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Hothwang Huang</t>
+          <t>Zoe Kuo</t>
         </is>
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>0AA4S2</t>
+          <t>2AA8A</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>880</t>
         </is>
       </c>
       <c r="E42" t="inlineStr">
@@ -7770,7 +7770,7 @@
       </c>
       <c r="P42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>570</t>
         </is>
       </c>
       <c r="Q42" t="inlineStr">
@@ -7830,12 +7830,12 @@
       </c>
       <c r="AB42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>440</t>
         </is>
       </c>
       <c r="AC42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>440</t>
         </is>
       </c>
       <c r="AD42" t="inlineStr">
@@ -7865,29 +7865,29 @@
       </c>
       <c r="AI42" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2330</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>吳建霖</t>
+          <t>郭亮均</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>ChienLin Wu</t>
+          <t>Joy Kuo</t>
         </is>
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>0AA4S2</t>
+          <t>2AA8A</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>914</t>
         </is>
       </c>
       <c r="E43" t="inlineStr">
@@ -7922,7 +7922,7 @@
       </c>
       <c r="K43" t="inlineStr">
         <is>
-          <t>2195</t>
+          <t>0</t>
         </is>
       </c>
       <c r="L43" t="inlineStr">
@@ -7937,7 +7937,7 @@
       </c>
       <c r="N43" t="inlineStr">
         <is>
-          <t>560</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O43" t="inlineStr">
@@ -7972,7 +7972,7 @@
       </c>
       <c r="U43" t="inlineStr">
         <is>
-          <t>830</t>
+          <t>0</t>
         </is>
       </c>
       <c r="V43" t="inlineStr">
@@ -8007,12 +8007,12 @@
       </c>
       <c r="AB43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>457</t>
         </is>
       </c>
       <c r="AC43" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>457</t>
         </is>
       </c>
       <c r="AD43" t="inlineStr">
@@ -8042,24 +8042,24 @@
       </c>
       <c r="AI43" t="inlineStr">
         <is>
-          <t>3585</t>
+          <t>1828</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>劉勝雄</t>
+          <t>陳璜琪</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Vincent Liu</t>
+          <t>Vincent Chen</t>
         </is>
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>0AA6</t>
+          <t>2AA8C</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -8094,7 +8094,7 @@
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1400</t>
         </is>
       </c>
       <c r="K44" t="inlineStr">
@@ -8219,24 +8219,24 @@
       </c>
       <c r="AI44" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1400</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>戴新華</t>
+          <t>謝昔祥</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Dixie Tai</t>
+          <t>Adonis Hsieh</t>
         </is>
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>0AA6</t>
+          <t>2AA8C</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -8346,7 +8346,7 @@
       </c>
       <c r="Y45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1400</t>
         </is>
       </c>
       <c r="Z45" t="inlineStr">
@@ -8396,29 +8396,29 @@
       </c>
       <c r="AI45" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1400</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>徐國財</t>
+          <t>謝勝旭</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Richard Hsu</t>
+          <t>Benjamin Hsieh</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>0AA80</t>
+          <t>2AA8D</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>880</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
@@ -8478,7 +8478,7 @@
       </c>
       <c r="P46" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1400</t>
         </is>
       </c>
       <c r="Q46" t="inlineStr">
@@ -8508,7 +8508,7 @@
       </c>
       <c r="V46" t="inlineStr">
         <is>
-          <t>320</t>
+          <t>0</t>
         </is>
       </c>
       <c r="W46" t="inlineStr">
@@ -8553,7 +8553,7 @@
       </c>
       <c r="AE46" t="inlineStr">
         <is>
-          <t>1400</t>
+          <t>0</t>
         </is>
       </c>
       <c r="AF46" t="inlineStr">
@@ -8573,24 +8573,24 @@
       </c>
       <c r="AI46" t="inlineStr">
         <is>
-          <t>1720</t>
+          <t>2280</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>李泰儀</t>
+          <t>蔡明彬</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Tyron Lee</t>
+          <t>Jeff Tsai</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>0AA9</t>
+          <t>2AA8S</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -8655,12 +8655,12 @@
       </c>
       <c r="P47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2700</t>
         </is>
       </c>
       <c r="Q47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2700</t>
         </is>
       </c>
       <c r="R47" t="inlineStr">
@@ -8750,24 +8750,24 @@
       </c>
       <c r="AI47" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5400</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>徐儷珊</t>
+          <t>胡美燕</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Lisan Hsu</t>
+          <t>May Hu</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>0AA940</t>
+          <t>2AA8S</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -8802,7 +8802,7 @@
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2655</t>
         </is>
       </c>
       <c r="K48" t="inlineStr">
@@ -8822,7 +8822,7 @@
       </c>
       <c r="N48" t="inlineStr">
         <is>
-          <t>2700</t>
+          <t>0</t>
         </is>
       </c>
       <c r="O48" t="inlineStr">
@@ -8927,34 +8927,29 @@
       </c>
       <c r="AI48" t="inlineStr">
         <is>
-          <t>2700</t>
+          <t>2655</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>徐儷珊</t>
+          <t>2023</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Lisan Hsu</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>0AA940</t>
+          <t>09</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3,999</t>
         </is>
       </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>1,500</t>
         </is>
       </c>
       <c r="F49" t="inlineStr">
@@ -8969,27 +8964,27 @@
       </c>
       <c r="H49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12,925</t>
         </is>
       </c>
       <c r="I49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8,300</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>12,845</t>
         </is>
       </c>
       <c r="K49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10,005</t>
         </is>
       </c>
       <c r="L49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10,490</t>
         </is>
       </c>
       <c r="M49" t="inlineStr">
@@ -8999,27 +8994,27 @@
       </c>
       <c r="N49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>11,315</t>
         </is>
       </c>
       <c r="O49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>9,326</t>
         </is>
       </c>
       <c r="P49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>10,871</t>
         </is>
       </c>
       <c r="Q49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8,336</t>
         </is>
       </c>
       <c r="R49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5,010</t>
         </is>
       </c>
       <c r="S49" t="inlineStr">
@@ -9034,27 +9029,27 @@
       </c>
       <c r="U49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3,642</t>
         </is>
       </c>
       <c r="V49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3,306</t>
         </is>
       </c>
       <c r="W49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>8,220</t>
         </is>
       </c>
       <c r="X49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4,311</t>
         </is>
       </c>
       <c r="Y49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6,090</t>
         </is>
       </c>
       <c r="Z49" t="inlineStr">
@@ -9069,22 +9064,22 @@
       </c>
       <c r="AB49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>7,768</t>
         </is>
       </c>
       <c r="AC49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2,468</t>
         </is>
       </c>
       <c r="AD49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4,625</t>
         </is>
       </c>
       <c r="AE49" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2,675</t>
         </is>
       </c>
       <c r="AF49" t="inlineStr">
@@ -9104,2657 +9099,7 @@
       </c>
       <c r="AI49" t="inlineStr">
         <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>李俊賢</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>Kiven Lee</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>0AA95</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI50" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>蔡俊輝</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>Alex Tsai</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>0B</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K51" t="inlineStr">
-        <is>
-          <t>700</t>
-        </is>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>670</t>
-        </is>
-      </c>
-      <c r="M51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH51" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI51" t="inlineStr">
-        <is>
-          <t>1370</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>川中郁果</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>Kawanaka Ikuka</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>0B</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI52" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>楊筑珺</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>Chynee Yang</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr">
-        <is>
-          <t>0B</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI53" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>徐沛</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>Fanny Hsu</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>0B</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI54" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>郭家渝</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>Zoe Kuo</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>2AA8A</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P55" t="inlineStr">
-        <is>
-          <t>570</t>
-        </is>
-      </c>
-      <c r="Q55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH55" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI55" t="inlineStr">
-        <is>
-          <t>570</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>郭亮均</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>Joy Kuo</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
-        <is>
-          <t>2AA8A</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI56" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>郭家渝</t>
-        </is>
-      </c>
-      <c r="B57" t="inlineStr">
-        <is>
-          <t>Zoe Kuo</t>
-        </is>
-      </c>
-      <c r="C57" t="inlineStr">
-        <is>
-          <t>2AA8A</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC57" t="inlineStr">
-        <is>
-          <t>440</t>
-        </is>
-      </c>
-      <c r="AD57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH57" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI57" t="inlineStr">
-        <is>
-          <t>440</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>郭亮均</t>
-        </is>
-      </c>
-      <c r="B58" t="inlineStr">
-        <is>
-          <t>Joy Kuo</t>
-        </is>
-      </c>
-      <c r="C58" t="inlineStr">
-        <is>
-          <t>2AA8A</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC58" t="inlineStr">
-        <is>
-          <t>457</t>
-        </is>
-      </c>
-      <c r="AD58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH58" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI58" t="inlineStr">
-        <is>
-          <t>457</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>陳璜琪</t>
-        </is>
-      </c>
-      <c r="B59" t="inlineStr">
-        <is>
-          <t>Vincent Chen</t>
-        </is>
-      </c>
-      <c r="C59" t="inlineStr">
-        <is>
-          <t>2AA8C</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI59" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>謝昔祥</t>
-        </is>
-      </c>
-      <c r="B60" t="inlineStr">
-        <is>
-          <t>Adonis Hsieh</t>
-        </is>
-      </c>
-      <c r="C60" t="inlineStr">
-        <is>
-          <t>2AA8C</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F60" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I60" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J60" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K60" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M60" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N60" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O60" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P60" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q60" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R60" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S60" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T60" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U60" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V60" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W60" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X60" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y60" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z60" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA60" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB60" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC60" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD60" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE60" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF60" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG60" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH60" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI60" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>謝勝旭</t>
-        </is>
-      </c>
-      <c r="B61" t="inlineStr">
-        <is>
-          <t>Benjamin Hsieh</t>
-        </is>
-      </c>
-      <c r="C61" t="inlineStr">
-        <is>
-          <t>2AA8D</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F61" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G61" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I61" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J61" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K61" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M61" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N61" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O61" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P61" t="inlineStr">
-        <is>
-          <t>1400</t>
-        </is>
-      </c>
-      <c r="Q61" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R61" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S61" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T61" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U61" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V61" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W61" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X61" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y61" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z61" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA61" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB61" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC61" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD61" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE61" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF61" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG61" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH61" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI61" t="inlineStr">
-        <is>
-          <t>1400</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>蔡明彬</t>
-        </is>
-      </c>
-      <c r="B62" t="inlineStr">
-        <is>
-          <t>Jeff Tsai</t>
-        </is>
-      </c>
-      <c r="C62" t="inlineStr">
-        <is>
-          <t>2AA8S</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F62" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G62" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I62" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J62" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K62" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M62" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N62" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O62" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P62" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q62" t="inlineStr">
-        <is>
-          <t>2700</t>
-        </is>
-      </c>
-      <c r="R62" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S62" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T62" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U62" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V62" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W62" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X62" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y62" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z62" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA62" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB62" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC62" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD62" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE62" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF62" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG62" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH62" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI62" t="inlineStr">
-        <is>
-          <t>2700</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>胡美燕</t>
-        </is>
-      </c>
-      <c r="B63" t="inlineStr">
-        <is>
-          <t>May Hu</t>
-        </is>
-      </c>
-      <c r="C63" t="inlineStr">
-        <is>
-          <t>2AA8S</t>
-        </is>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="I63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="K63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="O63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="P63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Q63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="V63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="W63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="X63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AD63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AE63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AF63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI63" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>2023</t>
-        </is>
-      </c>
-      <c r="B64" t="inlineStr">
-        <is>
-          <t>09</t>
-        </is>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="E64" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="F64" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>1,400</t>
-        </is>
-      </c>
-      <c r="I64" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="J64" t="inlineStr">
-        <is>
-          <t>2,750</t>
-        </is>
-      </c>
-      <c r="K64" t="inlineStr">
-        <is>
-          <t>4,655</t>
-        </is>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>3,445</t>
-        </is>
-      </c>
-      <c r="M64" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="N64" t="inlineStr">
-        <is>
-          <t>8,615</t>
-        </is>
-      </c>
-      <c r="O64" t="inlineStr">
-        <is>
-          <t>5,940</t>
-        </is>
-      </c>
-      <c r="P64" t="inlineStr">
-        <is>
-          <t>6,781</t>
-        </is>
-      </c>
-      <c r="Q64" t="inlineStr">
-        <is>
-          <t>7,486</t>
-        </is>
-      </c>
-      <c r="R64" t="inlineStr">
-        <is>
-          <t>2,640</t>
-        </is>
-      </c>
-      <c r="S64" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T64" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="U64" t="inlineStr">
-        <is>
-          <t>3,345</t>
-        </is>
-      </c>
-      <c r="V64" t="inlineStr">
-        <is>
-          <t>2,866</t>
-        </is>
-      </c>
-      <c r="W64" t="inlineStr">
-        <is>
-          <t>5,880</t>
-        </is>
-      </c>
-      <c r="X64" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Y64" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="Z64" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AA64" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AB64" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AC64" t="inlineStr">
-        <is>
-          <t>897</t>
-        </is>
-      </c>
-      <c r="AD64" t="inlineStr">
-        <is>
-          <t>4,625</t>
-        </is>
-      </c>
-      <c r="AE64" t="inlineStr">
-        <is>
-          <t>1,400</t>
-        </is>
-      </c>
-      <c r="AF64" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AG64" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AH64" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="AI64" t="inlineStr">
-        <is>
-          <t>62,725</t>
+          <t>148,027</t>
         </is>
       </c>
     </row>
